--- a/EntregaFinal/Pruebas.xlsx
+++ b/EntregaFinal/Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Filosi\Desktop\Curso_Python_CoderHouse\EntregaFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB2A888-780B-49D1-B07A-629810ED16A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1ED457-8A9B-47F8-A78F-B530A2AC4797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B62C9286-9712-4545-94C5-F6B40167E539}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -159,6 +159,81 @@
   </si>
   <si>
     <t>Muestre un mensaje indicando que no hay resultados para la busqueda.</t>
+  </si>
+  <si>
+    <t>Registrar un usuario</t>
+  </si>
+  <si>
+    <t>Se registren todos los campos de un usuario con toda la informacion requerda y muestre que esta logueado</t>
+  </si>
+  <si>
+    <t>Loguear un usuario</t>
+  </si>
+  <si>
+    <t>Se Loguea con sus credencailes y aparecen mas opciones en el header</t>
+  </si>
+  <si>
+    <t>Informacion de usuario</t>
+  </si>
+  <si>
+    <t>Si hacemos click en Hola, "Usuario" redirecciona a una pagina con la informacion de usuario. Ahí podremos editar la informacion personal y/o cambiar la contraseña.</t>
+  </si>
+  <si>
+    <t>Haciendo click en editar nos lleva al formulario de edicion</t>
+  </si>
+  <si>
+    <t>Guardar Informacion editada</t>
+  </si>
+  <si>
+    <t>Ver informacion de usuario registrado</t>
+  </si>
+  <si>
+    <t>Editar informacion de usuario Registrado</t>
+  </si>
+  <si>
+    <t>Luego de cambiar los campos deseados se guarda la informacion y se ve reflejado en la vista de Informacion de usuario</t>
+  </si>
+  <si>
+    <t>Cambiar Contraseña</t>
+  </si>
+  <si>
+    <t>Al hacer click en cambiar contraseña nos aparece un formulario con tres campos. Vieja contraseña, nueva y repetir. Al guardar y reloguearnos la contraseña vieja no sirve y funciona la nueva.</t>
+  </si>
+  <si>
+    <t>Cerrar sesion</t>
+  </si>
+  <si>
+    <t>Al hacer click en cerrar sesion se cierra la sesion en el sitio y redirige al inicio mostrando menos opciones del header</t>
+  </si>
+  <si>
+    <t>Mirar mis posts</t>
+  </si>
+  <si>
+    <t>Al hacer  click en mis posts podemos ver todos los posts que sean nuestros y nos daran la opcion de ver mas, eliminar o editar.</t>
+  </si>
+  <si>
+    <t>Eliminar un post mio</t>
+  </si>
+  <si>
+    <t>Al hacer click en eliminar nos preguntara si estamos seguros y en caso afirmativo nos devolvera a la vista de mis posts y no figurara el borrado. En caso de que el post no sea mio generara una vista 403</t>
+  </si>
+  <si>
+    <t>Editar un post mio</t>
+  </si>
+  <si>
+    <t>Al hacer click en editar mostrara un formulario con la informacion del post disponible para editar. Al guardar los cambios surtiran efecto y se podra ver.</t>
+  </si>
+  <si>
+    <t>Ver los mensajes</t>
+  </si>
+  <si>
+    <t>Al hacer click en Mensajes podemos ver los mensajes del chat ordenados de mas antiguo a mas reciente.</t>
+  </si>
+  <si>
+    <t>Enviar un mensaje.</t>
+  </si>
+  <si>
+    <t>Al enviar un mensaje re recargara la pagina mostrando el nuevo mensaje y le apareceran a los otros usuarios cuando recarguen la pagina.</t>
   </si>
 </sst>
 </file>
@@ -217,9 +292,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4C1666-3EE4-41F7-B036-1E393D0FBD82}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,304 +639,594 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5">
-        <v>45016</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45016</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
